--- a/dados_dia_wine.xlsx
+++ b/dados_dia_wine.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol.barroso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol.barroso\Documents\GitHub\powerbi-diawine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B6795C-AE40-4566-831B-C9991692B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687EB4B-67A4-40A4-BF93-F2112D5C50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas_Mensal" sheetId="1" r:id="rId1"/>
-    <sheet name="Clientes" sheetId="2" r:id="rId2"/>
-    <sheet name="Produtos" sheetId="3" r:id="rId3"/>
-    <sheet name="Positivacao" sheetId="4" r:id="rId4"/>
-    <sheet name="RCA" sheetId="5" r:id="rId5"/>
-    <sheet name="Expectativas" sheetId="6" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="2" r:id="rId3"/>
+    <sheet name="Produtos" sheetId="3" r:id="rId4"/>
+    <sheet name="Positivacao" sheetId="4" r:id="rId5"/>
+    <sheet name="RCA" sheetId="5" r:id="rId6"/>
+    <sheet name="Expectativas" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="47">
   <si>
     <t>data</t>
   </si>
@@ -98,15 +99,84 @@
   <si>
     <t>hora</t>
   </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Qt.Cli. Ativos</t>
+  </si>
+  <si>
+    <t>Qt.Cli. Pos.</t>
+  </si>
+  <si>
+    <t>% Pos.</t>
+  </si>
+  <si>
+    <t>Qt. Peso</t>
+  </si>
+  <si>
+    <t>Qt. Meta</t>
+  </si>
+  <si>
+    <t>Qt.Cli.Pos</t>
+  </si>
+  <si>
+    <t>Vl. Meta</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Qt. Vendida</t>
+  </si>
+  <si>
+    <t>Vl.Vendido</t>
+  </si>
+  <si>
+    <t>Peso (Kg)</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>DIA WINE ANDRE LUIZ</t>
+  </si>
+  <si>
+    <t>DIA WINE JULIANA DE A BRASILEIRO ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE JOYCE ANNE DE MORAES</t>
+  </si>
+  <si>
+    <t>DIA WINE CANTU FELIPE LEONARDO</t>
+  </si>
+  <si>
+    <t>DIA WINE JULIANA DE ANDRADE BRASILEIRO</t>
+  </si>
+  <si>
+    <t>DIA WINE SIMONE SOUTO MAIOR ROCHA</t>
+  </si>
+  <si>
+    <t>DIA WINE INTERNET WHATSAPP</t>
+  </si>
+  <si>
+    <t>DIA WINE ANDERSON ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE NETO ESP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +187,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,20 +236,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +566,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,6 +3208,811 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF102C8-0374-4069-A02E-5B00B3F1A270}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="48.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="8"/>
+    <col min="11" max="12" width="15.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="11.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1431</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>66.67</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>37200</v>
+      </c>
+      <c r="L2" s="8">
+        <v>999372</v>
+      </c>
+      <c r="M2" s="8">
+        <v>29.14</v>
+      </c>
+      <c r="N2" s="8">
+        <v>17826.72</v>
+      </c>
+      <c r="O2" s="8">
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1983</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>351</v>
+      </c>
+      <c r="D3" s="8">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10.54</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>8467</v>
+      </c>
+      <c r="L3" s="8">
+        <v>211157.25</v>
+      </c>
+      <c r="M3" s="8">
+        <v>6.16</v>
+      </c>
+      <c r="N3" s="8">
+        <v>9328.6200000000008</v>
+      </c>
+      <c r="O3" s="8">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1989</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8">
+        <v>308</v>
+      </c>
+      <c r="D4" s="8">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8">
+        <v>7.47</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4128</v>
+      </c>
+      <c r="L4" s="8">
+        <v>207551.71</v>
+      </c>
+      <c r="M4" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4353.53</v>
+      </c>
+      <c r="O4" s="8">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2149</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8">
+        <v>79</v>
+      </c>
+      <c r="D5" s="8">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8">
+        <v>43.04</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>5985</v>
+      </c>
+      <c r="L5" s="8">
+        <v>203731.44</v>
+      </c>
+      <c r="M5" s="8">
+        <v>5.94</v>
+      </c>
+      <c r="N5" s="8">
+        <v>6579.03</v>
+      </c>
+      <c r="O5" s="8">
+        <v>67.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1982</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8">
+        <v>351</v>
+      </c>
+      <c r="D6" s="8">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8.83</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4085</v>
+      </c>
+      <c r="L6" s="8">
+        <v>132807.38</v>
+      </c>
+      <c r="M6" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="N6" s="8">
+        <v>4583.47</v>
+      </c>
+      <c r="O6" s="8">
+        <v>37.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2079</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352</v>
+      </c>
+      <c r="D7" s="8">
+        <v>69</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2955</v>
+      </c>
+      <c r="L7" s="8">
+        <v>128563.78</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3208.11</v>
+      </c>
+      <c r="O7" s="8">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8">
+        <v>270</v>
+      </c>
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8">
+        <v>37.04</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1731</v>
+      </c>
+      <c r="L8" s="8">
+        <v>110210.19</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3.21</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1942.4</v>
+      </c>
+      <c r="O8" s="8">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>844</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8">
+        <v>214</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3797</v>
+      </c>
+      <c r="L9" s="8">
+        <v>108740.81</v>
+      </c>
+      <c r="M9" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="N9" s="8">
+        <v>4405.28</v>
+      </c>
+      <c r="O9" s="8">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1843</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8">
+        <v>134</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8">
+        <v>31.34</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3934</v>
+      </c>
+      <c r="L10" s="8">
+        <v>108368.25</v>
+      </c>
+      <c r="M10" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="N10" s="8">
+        <v>4412.59</v>
+      </c>
+      <c r="O10" s="8">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1910</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8">
+        <v>308</v>
+      </c>
+      <c r="D11" s="8">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2148</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8">
+        <v>79</v>
+      </c>
+      <c r="D12" s="8">
+        <v>41</v>
+      </c>
+      <c r="E12" s="8">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>876</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8">
+        <v>275</v>
+      </c>
+      <c r="D13" s="8">
+        <v>75</v>
+      </c>
+      <c r="E13" s="8">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2080</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8">
+        <v>351</v>
+      </c>
+      <c r="D14" s="8">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>763</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8">
+        <v>222</v>
+      </c>
+      <c r="D15" s="8">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8">
+        <v>514</v>
+      </c>
+      <c r="D16" s="8">
+        <v>154</v>
+      </c>
+      <c r="E16" s="8">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>2058</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8">
+        <v>211</v>
+      </c>
+      <c r="D17" s="8">
+        <v>66</v>
+      </c>
+      <c r="E17" s="8">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2059</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8">
+        <v>209</v>
+      </c>
+      <c r="D18" s="8">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>2064</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8">
+        <v>530</v>
+      </c>
+      <c r="D19" s="8">
+        <v>58</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1747</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8">
+        <v>316</v>
+      </c>
+      <c r="D20" s="8">
+        <v>53</v>
+      </c>
+      <c r="E20" s="8">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1750</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8">
+        <v>312</v>
+      </c>
+      <c r="D21" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>877</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8">
+        <v>272</v>
+      </c>
+      <c r="D22" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>765</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8">
+        <v>279</v>
+      </c>
+      <c r="D23" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>862</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8">
+        <v>282</v>
+      </c>
+      <c r="D24" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>807</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8">
+        <v>351</v>
+      </c>
+      <c r="D25" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>2065</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8">
+        <v>528</v>
+      </c>
+      <c r="D26" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>2251</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8">
+        <v>180</v>
+      </c>
+      <c r="D27" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>731</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>2151</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8">
+        <v>49</v>
+      </c>
+      <c r="D29" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8">
+        <v>69</v>
+      </c>
+      <c r="D30" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="8">
+        <v>15</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>2252</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8">
+        <v>178</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>718</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8">
+        <v>136</v>
+      </c>
+      <c r="D33" s="8">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -5765,7 +6657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -8410,7 +9302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -11055,7 +11947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -13700,11 +14592,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
